--- a/Assets/仕様書2.xlsx
+++ b/Assets/仕様書2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B0A416-A1B8-48B0-BBA0-82420CD54274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851927C-1715-4CB6-B6D6-C323E2E06B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
@@ -1443,8 +1443,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4137931" y="3212646"/>
-          <a:ext cx="1789114" cy="740411"/>
+          <a:off x="4151538" y="3124200"/>
+          <a:ext cx="1793650" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1605,16 +1605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>269988</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>484188</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>309451</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>309450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1626,14 +1626,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="0"/>
+          <a:stCxn id="21" idx="3"/>
           <a:endCxn id="6" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5032488" y="2257607"/>
-          <a:ext cx="2080534" cy="955039"/>
+          <a:off x="5945188" y="2196375"/>
+          <a:ext cx="1190512" cy="1287825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3524,16 +3524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>484188</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269988</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>299925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>153852</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3546,13 +3546,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="21" idx="3"/>
+          <a:endCxn id="21" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5927045" y="2257607"/>
-          <a:ext cx="3897880" cy="1325245"/>
+          <a:off x="5048363" y="2196375"/>
+          <a:ext cx="4808312" cy="927825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4119,7 +4119,7 @@
   <dimension ref="E2:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/仕様書2.xlsx
+++ b/Assets/仕様書2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfam\Documents\Sudoku_Git\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3851927C-1715-4CB6-B6D6-C323E2E06B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827627C7-DDE1-426B-A718-A43CF8A495E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" activeTab="3" xr2:uid="{4521FB58-C6D8-458F-B2B5-CA63D47F7699}"/>
   </bookViews>
@@ -4119,7 +4119,7 @@
   <dimension ref="E2:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
